--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
+    <sheet name="Verify" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -633,6 +634,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -642,7 +662,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Verify" sheetId="16" r:id="rId16"/>
+    <sheet name="Test 1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -653,6 +654,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Verify" sheetId="16" r:id="rId16"/>
     <sheet name="Test 1" sheetId="17" r:id="rId17"/>
+    <sheet name="Test2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -673,6 +674,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Verify" sheetId="16" r:id="rId16"/>
     <sheet name="Test 1" sheetId="17" r:id="rId17"/>
     <sheet name="Test2" sheetId="18" r:id="rId18"/>
+    <sheet name="test3" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -693,6 +694,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Test 1" sheetId="17" r:id="rId17"/>
     <sheet name="Test2" sheetId="18" r:id="rId18"/>
     <sheet name="test3" sheetId="19" r:id="rId19"/>
+    <sheet name="test4" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -713,6 +714,44 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -728,25 +767,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Test2" sheetId="18" r:id="rId18"/>
     <sheet name="test3" sheetId="19" r:id="rId19"/>
     <sheet name="test4" sheetId="20" r:id="rId20"/>
+    <sheet name="test5" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -752,6 +753,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="test3" sheetId="19" r:id="rId19"/>
     <sheet name="test4" sheetId="20" r:id="rId20"/>
     <sheet name="test5" sheetId="21" r:id="rId21"/>
+    <sheet name="test6" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -772,6 +773,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="test4" sheetId="20" r:id="rId20"/>
     <sheet name="test5" sheetId="21" r:id="rId21"/>
     <sheet name="test6" sheetId="22" r:id="rId22"/>
+    <sheet name="test7" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -792,6 +793,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="22"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="test4" sheetId="20" r:id="rId20"/>
     <sheet name="test5" sheetId="21" r:id="rId21"/>
     <sheet name="test6" sheetId="22" r:id="rId22"/>
-    <sheet name="test7" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -669,7 +668,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -688,7 +687,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -707,7 +706,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -726,7 +725,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +763,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -783,7 +782,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -793,25 +792,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -821,7 +801,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="21"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <sheet name="test3" sheetId="19" r:id="rId19"/>
     <sheet name="test4" sheetId="20" r:id="rId20"/>
     <sheet name="test5" sheetId="21" r:id="rId21"/>
-    <sheet name="test6" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -773,25 +772,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="20"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="Test2" sheetId="18" r:id="rId18"/>
     <sheet name="test3" sheetId="19" r:id="rId19"/>
     <sheet name="test4" sheetId="20" r:id="rId20"/>
-    <sheet name="test5" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -753,25 +752,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="19"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="Test 1" sheetId="17" r:id="rId17"/>
     <sheet name="Test2" sheetId="18" r:id="rId18"/>
     <sheet name="test3" sheetId="19" r:id="rId19"/>
-    <sheet name="test4" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -714,7 +713,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -748,25 +747,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,9 @@
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
-    <sheet name="Verify" sheetId="16" r:id="rId16"/>
-    <sheet name="Test 1" sheetId="17" r:id="rId17"/>
-    <sheet name="Test2" sheetId="18" r:id="rId18"/>
-    <sheet name="test3" sheetId="19" r:id="rId19"/>
+    <sheet name="Test 1" sheetId="16" r:id="rId16"/>
+    <sheet name="Test2" sheetId="17" r:id="rId17"/>
+    <sheet name="test3" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -694,25 +693,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Test 1" sheetId="16" r:id="rId16"/>
     <sheet name="Test2" sheetId="17" r:id="rId17"/>
     <sheet name="test3" sheetId="18" r:id="rId18"/>
+    <sheet name="test8" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -693,6 +694,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -702,7 +722,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,7 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Test 1" sheetId="16" r:id="rId16"/>
     <sheet name="Test2" sheetId="17" r:id="rId17"/>
-    <sheet name="test3" sheetId="18" r:id="rId18"/>
-    <sheet name="test8" sheetId="19" r:id="rId19"/>
+    <sheet name="test8" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -694,25 +693,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Test 1" sheetId="16" r:id="rId16"/>
-    <sheet name="Test2" sheetId="17" r:id="rId17"/>
-    <sheet name="test8" sheetId="18" r:id="rId18"/>
+    <sheet name="test8" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -674,25 +673,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Test 1" sheetId="16" r:id="rId16"/>
-    <sheet name="test8" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -654,25 +653,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -682,7 +662,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Test 1" sheetId="16" r:id="rId16"/>
+    <sheet name="test9" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -653,6 +654,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -662,7 +682,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FlightGUIBU1/Default.xlsx
+++ b/FlightGUIBU1/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
-    <sheet name="Test 1" sheetId="16" r:id="rId16"/>
-    <sheet name="test9" sheetId="17" r:id="rId17"/>
+    <sheet name="test9" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -654,25 +653,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
